--- a/csv/policies/reference/Ref_renewable content transport fuels/formula_Ref_renewable content transport fuels_BC.xlsx
+++ b/csv/policies/reference/Ref_renewable content transport fuels/formula_Ref_renewable content transport fuels_BC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_renewable content transport fuels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6220C63-6348-47F8-8C1D-8592FF331312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{557256E3-6132-4C66-8AA6-7E16DED653BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97261C14-8D4B-4C49-A986-67AAB1FE63E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B25907B-D536-4C6D-8426-80F7EE51614B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -80,49 +80,43 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Transportation Personal.Diesel Blend</t>
+    <t>CIMS.CAN.BC.Fuel Blends.Gasoline_Transportation</t>
   </si>
   <si>
     <t>BC</t>
   </si>
   <si>
-    <t>Transportation Personal</t>
-  </si>
-  <si>
-    <t>Diesel Blend</t>
+    <t>Gasoline_Transportation</t>
+  </si>
+  <si>
+    <t>Market share_class_min</t>
+  </si>
+  <si>
+    <t>Estimated based on https://advancedbiofuels.ca/wp-content/uploads/Biofuels-in-Canada-2023-2023-12-14.pdf</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Market share_class</t>
+  </si>
+  <si>
+    <t>Renewable Gasoline</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.BC.Fuel Blends.Diesel_Transportation</t>
+  </si>
+  <si>
+    <t>Diesel_Transportation</t>
+  </si>
+  <si>
+    <t>Market share new_min</t>
   </si>
   <si>
     <t>Biodiesel</t>
   </si>
   <si>
-    <t>Market share new_min</t>
-  </si>
-  <si>
-    <t>Estimated based on https://advancedbiofuels.ca/wp-content/uploads/Biofuels-in-Canada-2023-2023-12-14.pdf</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Transportation Personal.Gasoline Blend</t>
-  </si>
-  <si>
-    <t>Gasoline Blend</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Transportation Freight.Diesel Blend</t>
-  </si>
-  <si>
-    <t>Transportation Freight</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Transportation Freight.Gasoline Blend</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Transportation Freight.Flex Blend</t>
-  </si>
-  <si>
-    <t>Flex Blend</t>
+    <t>Renewable Diesel</t>
   </si>
 </sst>
 </file>
@@ -493,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8FDE1-4A6C-416C-8B41-29E7EF098E17}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B097B61-FC21-4478-B5A9-E45FE9AF41B5}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X7"/>
+      <selection sqref="A1:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,17 +585,14 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -610,48 +601,48 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>0.87*0.027/(0.87*0.027+1*0.973)</f>
-        <v>2.3572740318517998E-2</v>
+        <f ca="1">0.67*0.04/(0.67*0.04+1*0.96)</f>
+        <v>2.7158492095662748E-2</v>
       </c>
       <c r="P3">
-        <f>0.87*0.06/(0.87*0.06+1*0.94)</f>
-        <v>5.2610360814351942E-2</v>
+        <f ca="1">0.67*0.068/(0.67*0.068+1*0.932)</f>
+        <v>4.6605834935963007E-2</v>
       </c>
       <c r="Q3">
-        <f>0.87*0.12/(0.87*0.12+1*0.88)</f>
-        <v>0.10605444941080862</v>
+        <f ca="1">0.67*0.068/(0.67*0.068+1*0.932)</f>
+        <v>4.6605834935963007E-2</v>
       </c>
       <c r="R3">
-        <f>0.87*0.15/(0.87*0.15+1*0.85)</f>
-        <v>0.13309535951045387</v>
+        <f ca="1">0.67*0.11/(0.67*0.11+1*0.89)</f>
+        <v>7.6476081768185128E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:W7" si="0">R3</f>
-        <v>0.13309535951045387</v>
+        <f ca="1">0.67*0.15/(0.67*0.15+1*0.85)</f>
+        <v>0.10573382430299842</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
+        <f t="shared" ref="T3:W3" ca="1" si="0">S3</f>
+        <v>0.10573382430299842</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10573382430299842</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10573382430299842</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10573382430299842</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -659,67 +650,22 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>0.67*0.04/(0.67*0.04+1*0.96)</f>
-        <v>2.7158492095662748E-2</v>
-      </c>
-      <c r="P4">
-        <f>0.67*0.068/(0.67*0.068+1*0.932)</f>
-        <v>4.6605834935963007E-2</v>
-      </c>
-      <c r="Q4">
-        <f>0.67*0.068/(0.67*0.068+1*0.932)</f>
-        <v>4.6605834935963007E-2</v>
-      </c>
-      <c r="R4">
-        <f>0.67*0.11/(0.67*0.11+1*0.89)</f>
-        <v>7.6476081768185128E-2</v>
-      </c>
-      <c r="S4">
-        <f>0.67*0.15/(0.67*0.15+1*0.85)</f>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="X4" t="s">
         <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -727,67 +673,22 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f>0.87*0.027/(0.87*0.027+1*0.973)</f>
-        <v>2.3572740318517998E-2</v>
-      </c>
-      <c r="P5">
-        <f>0.87*0.06/(0.87*0.06+1*0.94)</f>
-        <v>5.2610360814351942E-2</v>
-      </c>
-      <c r="Q5">
-        <f>0.87*0.12/(0.87*0.12+1*0.88)</f>
-        <v>0.10605444941080862</v>
-      </c>
-      <c r="R5">
-        <f>0.87*0.15/(0.87*0.15+1*0.85)</f>
-        <v>0.13309535951045387</v>
-      </c>
-      <c r="S5">
-        <f>R5</f>
-        <v>0.13309535951045387</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>0.13309535951045387</v>
-      </c>
-      <c r="X5" t="s">
         <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -795,17 +696,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -814,48 +712,48 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>0.67*0.04/(0.67*0.04+1*0.96)</f>
-        <v>2.7158492095662748E-2</v>
+        <f t="shared" ref="O6:O8" ca="1" si="1">0.87*0.027/(0.87*0.027+1*0.973)</f>
+        <v>2.3572740318517998E-2</v>
       </c>
       <c r="P6">
-        <f>0.67*0.068/(0.67*0.068+1*0.932)</f>
-        <v>4.6605834935963007E-2</v>
+        <f t="shared" ref="P6:P8" ca="1" si="2">0.87*0.06/(0.87*0.06+1*0.94)</f>
+        <v>5.2610360814351942E-2</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q7" si="1">0.67*0.068/(0.67*0.068+1*0.932)</f>
-        <v>4.6605834935963007E-2</v>
+        <f t="shared" ref="Q6:Q8" ca="1" si="3">0.87*0.12/(0.87*0.12+1*0.88)</f>
+        <v>0.10605444941080862</v>
       </c>
       <c r="R6">
-        <f>0.67*0.11/(0.67*0.11+1*0.89)</f>
-        <v>7.6476081768185128E-2</v>
+        <f t="shared" ref="R6:R8" ca="1" si="4">0.87*0.15/(0.87*0.15+1*0.85)</f>
+        <v>0.13309535951045387</v>
       </c>
       <c r="S6">
-        <f>0.67*0.15/(0.67*0.15+1*0.85)</f>
-        <v>0.10573382430299842</v>
+        <f t="shared" ref="S6:W8" ca="1" si="5">R6</f>
+        <v>0.13309535951045387</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13309535951045387</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13309535951045387</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13309535951045387</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13309535951045387</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -863,62 +761,40 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>0.67*0.04/(0.67*0.04+1*0.96)</f>
-        <v>2.7158492095662748E-2</v>
-      </c>
-      <c r="P7">
-        <f>0.67*0.068/(0.67*0.068+1*0.932)</f>
-        <v>4.6605834935963007E-2</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>4.6605834935963007E-2</v>
-      </c>
-      <c r="R7">
-        <f>0.67*0.11/(0.67*0.11+1*0.89)</f>
-        <v>7.6476081768185128E-2</v>
-      </c>
-      <c r="S7">
-        <f>0.67*0.15/(0.67*0.15+1*0.85)</f>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="X7" t="s">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
